--- a/results/wer_corpusgen.xlsx
+++ b/results/wer_corpusgen.xlsx
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.1627906976744186</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0505050505050505</v>
       </c>
     </row>
     <row r="130">
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.125</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="H288" t="n">
-        <v>0.108695652173913</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="289">
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="H289" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="290">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         </is>
       </c>
       <c r="F629" t="n">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="G629" t="inlineStr">
         <is>

--- a/results/wer_corpusgen.xlsx
+++ b/results/wer_corpusgen.xlsx
@@ -502,23 +502,23 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>non je l'attends par la poste moi je vais payer dix pièces euh je voudrais savoir si c'est confirmé si ça a été payé je l'ai fait par accéder là</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Non, je l'attends par la poste. Moi, je viens de payer 10 pièces. Je voudrais savoir si c'est confirmé, si ça a été payé, je l'ai fait par accéder là .</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>0.1142857142857143</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>non je l'attends par la poste moi je vais payer dix pièces euh je voudrais savoir si c'est confirmé si ça a été payé je l'ai fait par accéder là</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Non, je l'attends par la poste. Moi, je viens de payer 10 pièces. Je voudrais savoir si c'est confirmé, si ça a été payé, je l'ai fait par accéder là .</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1428571428571428</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="157">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="158">
@@ -11942,7 +11942,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0.1680672268907563</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="H384" t="n">
-        <v>0.1512605042016807</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I384" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0.2016806722689076</v>
+        <v>0.1932773109243698</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0.1680672268907563</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
